--- a/data/outputs/OR/2 .xlsx
+++ b/data/outputs/OR/2 .xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BQ79"/>
+  <dimension ref="A1:BR79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -712,6 +712,11 @@
           <t>Unnamed: 68</t>
         </is>
       </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>citation_id</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -933,6 +938,7 @@
         </is>
       </c>
       <c r="BQ2" t="inlineStr"/>
+      <c r="BR2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1134,6 +1140,7 @@
         </is>
       </c>
       <c r="BQ3" t="inlineStr"/>
+      <c r="BR3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1343,6 +1350,7 @@
         </is>
       </c>
       <c r="BQ4" t="inlineStr"/>
+      <c r="BR4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1544,6 +1552,7 @@
         </is>
       </c>
       <c r="BQ5" t="inlineStr"/>
+      <c r="BR5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1745,6 +1754,7 @@
         </is>
       </c>
       <c r="BQ6" t="inlineStr"/>
+      <c r="BR6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1946,6 +1956,7 @@
         </is>
       </c>
       <c r="BQ7" t="inlineStr"/>
+      <c r="BR7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2032,7 +2043,7 @@
       </c>
       <c r="AA8" t="inlineStr">
         <is>
-          <t>Louzada, Francisco/0000-0001-7815-9554; </t>
+          <t>Louzada, Francisco/0000-0001-7815-9554;</t>
         </is>
       </c>
       <c r="AB8" t="inlineStr">
@@ -2163,6 +2174,7 @@
         </is>
       </c>
       <c r="BQ8" t="inlineStr"/>
+      <c r="BR8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2368,6 +2380,7 @@
         </is>
       </c>
       <c r="BQ9" t="inlineStr"/>
+      <c r="BR9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2581,6 +2594,7 @@
         </is>
       </c>
       <c r="BQ10" t="inlineStr"/>
+      <c r="BR10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2782,6 +2796,11 @@
         </is>
       </c>
       <c r="BQ11" t="inlineStr"/>
+      <c r="BR11" t="inlineStr">
+        <is>
+          <t>4505620</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2868,7 +2887,7 @@
       </c>
       <c r="AA12" t="inlineStr">
         <is>
-          <t>Aslam, Muhammad/0000-0003-0644-1950; </t>
+          <t>Aslam, Muhammad/0000-0003-0644-1950;</t>
         </is>
       </c>
       <c r="AB12" t="inlineStr"/>
@@ -2991,6 +3010,7 @@
         </is>
       </c>
       <c r="BQ12" t="inlineStr"/>
+      <c r="BR12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3208,6 +3228,7 @@
         </is>
       </c>
       <c r="BQ13" t="inlineStr"/>
+      <c r="BR13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3417,6 +3438,7 @@
         </is>
       </c>
       <c r="BQ14" t="inlineStr"/>
+      <c r="BR14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3634,6 +3656,7 @@
         </is>
       </c>
       <c r="BQ15" t="inlineStr"/>
+      <c r="BR15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3843,6 +3866,7 @@
         </is>
       </c>
       <c r="BQ16" t="inlineStr"/>
+      <c r="BR16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4052,6 +4076,7 @@
         </is>
       </c>
       <c r="BQ17" t="inlineStr"/>
+      <c r="BR17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4261,6 +4286,7 @@
         </is>
       </c>
       <c r="BQ18" t="inlineStr"/>
+      <c r="BR18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4470,6 +4496,7 @@
         </is>
       </c>
       <c r="BQ19" t="inlineStr"/>
+      <c r="BR19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4675,6 +4702,7 @@
         </is>
       </c>
       <c r="BQ20" t="inlineStr"/>
+      <c r="BR20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -4876,6 +4904,7 @@
         </is>
       </c>
       <c r="BQ21" t="inlineStr"/>
+      <c r="BR21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5085,6 +5114,7 @@
         </is>
       </c>
       <c r="BQ22" t="inlineStr"/>
+      <c r="BR22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5302,6 +5332,7 @@
         </is>
       </c>
       <c r="BQ23" t="inlineStr"/>
+      <c r="BR23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5511,6 +5542,7 @@
         </is>
       </c>
       <c r="BQ24" t="inlineStr"/>
+      <c r="BR24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5712,6 +5744,7 @@
         </is>
       </c>
       <c r="BQ25" t="inlineStr"/>
+      <c r="BR25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -5913,6 +5946,7 @@
         </is>
       </c>
       <c r="BQ26" t="inlineStr"/>
+      <c r="BR26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6114,6 +6148,7 @@
         </is>
       </c>
       <c r="BQ27" t="inlineStr"/>
+      <c r="BR27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6319,6 +6354,7 @@
         </is>
       </c>
       <c r="BQ28" t="inlineStr"/>
+      <c r="BR28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6520,6 +6556,7 @@
         </is>
       </c>
       <c r="BQ29" t="inlineStr"/>
+      <c r="BR29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6733,6 +6770,7 @@
         </is>
       </c>
       <c r="BQ30" t="inlineStr"/>
+      <c r="BR30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -6930,6 +6968,7 @@
         </is>
       </c>
       <c r="BQ31" t="inlineStr"/>
+      <c r="BR31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7147,6 +7186,7 @@
         </is>
       </c>
       <c r="BQ32" t="inlineStr"/>
+      <c r="BR32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7360,6 +7400,7 @@
         </is>
       </c>
       <c r="BQ33" t="inlineStr"/>
+      <c r="BR33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7561,6 +7602,7 @@
         </is>
       </c>
       <c r="BQ34" t="inlineStr"/>
+      <c r="BR34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -7746,6 +7788,7 @@
         </is>
       </c>
       <c r="BQ35" t="inlineStr"/>
+      <c r="BR35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -7955,6 +7998,7 @@
         </is>
       </c>
       <c r="BQ36" t="inlineStr"/>
+      <c r="BR36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8160,6 +8204,11 @@
         </is>
       </c>
       <c r="BQ37" t="inlineStr"/>
+      <c r="BR37" t="inlineStr">
+        <is>
+          <t>4452810</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8369,6 +8418,7 @@
         </is>
       </c>
       <c r="BQ38" t="inlineStr"/>
+      <c r="BR38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8582,6 +8632,11 @@
         </is>
       </c>
       <c r="BQ39" t="inlineStr"/>
+      <c r="BR39" t="inlineStr">
+        <is>
+          <t>4080692</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -8795,6 +8850,7 @@
         </is>
       </c>
       <c r="BQ40" t="inlineStr"/>
+      <c r="BR40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -9008,6 +9064,11 @@
         </is>
       </c>
       <c r="BQ41" t="inlineStr"/>
+      <c r="BR41" t="inlineStr">
+        <is>
+          <t>4167893</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -9225,6 +9286,7 @@
         </is>
       </c>
       <c r="BQ42" t="inlineStr"/>
+      <c r="BR42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -9442,6 +9504,11 @@
         </is>
       </c>
       <c r="BQ43" t="inlineStr"/>
+      <c r="BR43" t="inlineStr">
+        <is>
+          <t>4199603</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -9647,6 +9714,7 @@
         </is>
       </c>
       <c r="BQ44" t="inlineStr"/>
+      <c r="BR44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -9864,6 +9932,7 @@
         </is>
       </c>
       <c r="BQ45" t="inlineStr"/>
+      <c r="BR45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -10057,6 +10126,7 @@
         </is>
       </c>
       <c r="BQ46" t="inlineStr"/>
+      <c r="BR46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -10250,6 +10320,7 @@
         </is>
       </c>
       <c r="BQ47" t="inlineStr"/>
+      <c r="BR47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -10451,6 +10522,7 @@
         </is>
       </c>
       <c r="BQ48" t="inlineStr"/>
+      <c r="BR48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -10660,6 +10732,7 @@
         </is>
       </c>
       <c r="BQ49" t="inlineStr"/>
+      <c r="BR49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -10869,6 +10942,7 @@
         </is>
       </c>
       <c r="BQ50" t="inlineStr"/>
+      <c r="BR50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -11082,6 +11156,7 @@
         </is>
       </c>
       <c r="BQ51" t="inlineStr"/>
+      <c r="BR51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -11303,6 +11378,7 @@
         </is>
       </c>
       <c r="BQ52" t="inlineStr"/>
+      <c r="BR52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -11528,6 +11604,7 @@
         </is>
       </c>
       <c r="BQ53" t="inlineStr"/>
+      <c r="BR53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -11725,6 +11802,7 @@
         </is>
       </c>
       <c r="BQ54" t="inlineStr"/>
+      <c r="BR54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -11918,6 +11996,7 @@
         </is>
       </c>
       <c r="BQ55" t="inlineStr"/>
+      <c r="BR55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -12119,6 +12198,7 @@
         </is>
       </c>
       <c r="BQ56" t="inlineStr"/>
+      <c r="BR56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -12201,7 +12281,7 @@
       </c>
       <c r="AA57" t="inlineStr">
         <is>
-          <t>Banik, abhijit Datta/0000-0003-1570-8389; </t>
+          <t>Banik, abhijit Datta/0000-0003-1570-8389;</t>
         </is>
       </c>
       <c r="AB57" t="inlineStr">
@@ -12336,6 +12416,7 @@
         </is>
       </c>
       <c r="BQ57" t="inlineStr"/>
+      <c r="BR57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -12541,6 +12622,7 @@
         </is>
       </c>
       <c r="BQ58" t="inlineStr"/>
+      <c r="BR58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -12746,6 +12828,7 @@
         </is>
       </c>
       <c r="BQ59" t="inlineStr"/>
+      <c r="BR59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -12959,6 +13042,7 @@
         </is>
       </c>
       <c r="BQ60" t="inlineStr"/>
+      <c r="BR60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -13160,6 +13244,7 @@
         </is>
       </c>
       <c r="BQ61" t="inlineStr"/>
+      <c r="BR61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -13365,6 +13450,11 @@
         </is>
       </c>
       <c r="BQ62" t="inlineStr"/>
+      <c r="BR62" t="inlineStr">
+        <is>
+          <t>3909901</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -13562,6 +13652,7 @@
         </is>
       </c>
       <c r="BQ63" t="inlineStr"/>
+      <c r="BR63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -13759,6 +13850,7 @@
         </is>
       </c>
       <c r="BQ64" t="inlineStr"/>
+      <c r="BR64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -13956,6 +14048,7 @@
         </is>
       </c>
       <c r="BQ65" t="inlineStr"/>
+      <c r="BR65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -14157,6 +14250,7 @@
         </is>
       </c>
       <c r="BQ66" t="inlineStr"/>
+      <c r="BR66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -14358,6 +14452,7 @@
         </is>
       </c>
       <c r="BQ67" t="inlineStr"/>
+      <c r="BR67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -14551,6 +14646,7 @@
         </is>
       </c>
       <c r="BQ68" t="inlineStr"/>
+      <c r="BR68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -14744,6 +14840,7 @@
         </is>
       </c>
       <c r="BQ69" t="inlineStr"/>
+      <c r="BR69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -14945,6 +15042,7 @@
         </is>
       </c>
       <c r="BQ70" t="inlineStr"/>
+      <c r="BR70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -15142,6 +15240,7 @@
         </is>
       </c>
       <c r="BQ71" t="inlineStr"/>
+      <c r="BR71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -15335,6 +15434,7 @@
         </is>
       </c>
       <c r="BQ72" t="inlineStr"/>
+      <c r="BR72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -15540,6 +15640,7 @@
         </is>
       </c>
       <c r="BQ73" t="inlineStr"/>
+      <c r="BR73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -15737,6 +15838,7 @@
         </is>
       </c>
       <c r="BQ74" t="inlineStr"/>
+      <c r="BR74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -15930,6 +16032,7 @@
         </is>
       </c>
       <c r="BQ75" t="inlineStr"/>
+      <c r="BR75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -16143,6 +16246,11 @@
         </is>
       </c>
       <c r="BQ76" t="inlineStr"/>
+      <c r="BR76" t="inlineStr">
+        <is>
+          <t>4583335</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -16336,6 +16444,7 @@
         </is>
       </c>
       <c r="BQ77" t="inlineStr"/>
+      <c r="BR77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -16533,6 +16642,7 @@
         </is>
       </c>
       <c r="BQ78" t="inlineStr"/>
+      <c r="BR78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -16754,6 +16864,7 @@
         </is>
       </c>
       <c r="BQ79" t="inlineStr"/>
+      <c r="BR79" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
